--- a/Data/test_data.xlsx
+++ b/Data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E7C45F-2106-43BA-820C-05174540DA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB7CA2F-ACB4-485B-9F9C-53F7B03AFBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A2477E2-8E14-4E5E-90B0-4D949418733E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98EE50C7-5C0C-474C-A1FB-E1CA7E477D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,14 +86,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,29 +111,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D14C0023-2E0B-4A87-9FE1-3BF5CD8BB635}"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{AA07CFA3-6F18-4D40-A59D-7681C21B8C64}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{49D7C7F1-1DA8-4E02-AA77-E20B587B6B0B}"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{3272F3B6-AF82-48B4-BB28-5E3572C0E508}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,47 +440,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBAD217-9EE7-491B-8D49-E39DEBD7E298}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6052AC50-5AA2-41E0-A5D7-69711B677F6E}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="5" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>7.6700000000000004E-2</v>
       </c>
@@ -509,7 +484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>0.2152</v>
       </c>
@@ -526,7 +501,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>0.47439999999999999</v>
       </c>
@@ -543,7 +518,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>0.72729999999999995</v>
       </c>
@@ -560,7 +535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>0.99080000000000001</v>
       </c>
@@ -577,7 +552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1.1808000000000001</v>
       </c>
@@ -594,7 +569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1.3592</v>
       </c>
@@ -611,7 +586,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1.5167999999999999</v>
       </c>
@@ -628,7 +603,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1.7002999999999999</v>
       </c>
@@ -645,7 +620,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>1.8854</v>
       </c>
@@ -662,7 +637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>2.0366</v>
       </c>
@@ -679,7 +654,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>2.1583000000000001</v>
       </c>
@@ -696,7 +671,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>2.2641</v>
       </c>
@@ -713,227 +688,234 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>783.2</v>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>784.4</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E15" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="B16" s="3">
-        <v>768.3</v>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="B16" s="2">
+        <v>722.9</v>
       </c>
       <c r="C16" s="4">
-        <v>0.22</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E16" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2">
-        <v>0.24979999999999999</v>
-      </c>
-      <c r="B17" s="3">
-        <v>695.8</v>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="B17" s="2">
+        <v>574.79999999999995</v>
       </c>
       <c r="C17" s="4">
-        <v>0.39200000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E17" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2">
-        <v>0.40450000000000003</v>
-      </c>
-      <c r="B18" s="3">
-        <v>608.1</v>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>0.6391</v>
+      </c>
+      <c r="B18" s="2">
+        <v>516.9</v>
       </c>
       <c r="C18" s="4">
-        <v>0.66</v>
+        <v>1.218</v>
       </c>
       <c r="D18" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E18" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2">
-        <v>0.58740000000000003</v>
-      </c>
-      <c r="B19" s="3">
-        <v>509.9</v>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="B19" s="2">
+        <v>404.2</v>
       </c>
       <c r="C19" s="4">
-        <v>0.84199999999999997</v>
+        <v>1.806</v>
       </c>
       <c r="D19" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E19" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
-        <v>0.74260000000000004</v>
-      </c>
-      <c r="B20" s="3">
-        <v>460.4</v>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>1.1327</v>
+      </c>
+      <c r="B20" s="2">
+        <v>335.8</v>
       </c>
       <c r="C20" s="4">
-        <v>1.1926000000000001</v>
+        <v>2.3520000000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E20" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="B21" s="3">
-        <v>677.6</v>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <v>1.3546</v>
+      </c>
+      <c r="B21" s="2">
+        <v>538.4</v>
       </c>
       <c r="C21" s="4">
-        <v>1.536</v>
+        <v>2.7720000000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E21" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2">
-        <v>1.0584</v>
-      </c>
-      <c r="B22" s="3">
-        <v>949</v>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>1.5643</v>
+      </c>
+      <c r="B22" s="2">
+        <v>810.2</v>
       </c>
       <c r="C22" s="4">
-        <v>1.742</v>
+        <v>3.3180000000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E22" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2">
-        <v>1.1949000000000001</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1153.0999999999999</v>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
+        <v>1.7803</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1028.3</v>
       </c>
       <c r="C23" s="4">
-        <v>1.96</v>
+        <v>3.9689999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E23" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2">
-        <v>1.2919</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1427.5</v>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1230.4000000000001</v>
       </c>
       <c r="C24" s="4">
-        <v>2.1800000000000002</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E24" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2">
-        <v>1.4063000000000001</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1718</v>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>2.1856</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1484.6</v>
       </c>
       <c r="C25" s="4">
-        <v>2.3860000000000001</v>
+        <v>4.5360000000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E25" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2">
-        <v>1.4852000000000001</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1967.2</v>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>2.2902</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1667.8</v>
       </c>
       <c r="C26" s="4">
-        <v>2.4620000000000002</v>
+        <v>4.620000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E26" s="1">
         <v>0.1</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2">
-        <v>1.5414000000000001</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2214.3000000000002</v>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
+        <v>2.3580999999999999</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1885.1</v>
       </c>
       <c r="C27" s="4">
-        <v>2.3580000000000001</v>
+        <v>4.5570000000000004</v>
       </c>
       <c r="D27" s="1">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E27" s="1">
         <v>0.1</v>
       </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/test_data.xlsx
+++ b/Data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB7CA2F-ACB4-485B-9F9C-53F7B03AFBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF5175B-77CF-45DA-86A7-84E1C3CFC8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98EE50C7-5C0C-474C-A1FB-E1CA7E477D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A2477E2-8E14-4E5E-90B0-4D949418733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,25 +119,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{49D7C7F1-1DA8-4E02-AA77-E20B587B6B0B}"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{3272F3B6-AF82-48B4-BB28-5E3572C0E508}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D14C0023-2E0B-4A87-9FE1-3BF5CD8BB635}"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{AA07CFA3-6F18-4D40-A59D-7681C21B8C64}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,34 +452,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6052AC50-5AA2-41E0-A5D7-69711B677F6E}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBAD217-9EE7-491B-8D49-E39DEBD7E298}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>7.6700000000000004E-2</v>
       </c>
@@ -484,7 +509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>0.2152</v>
       </c>
@@ -501,7 +526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>0.47439999999999999</v>
       </c>
@@ -518,7 +543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>0.72729999999999995</v>
       </c>
@@ -535,7 +560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>0.99080000000000001</v>
       </c>
@@ -552,7 +577,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>1.1808000000000001</v>
       </c>
@@ -569,7 +594,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>1.3592</v>
       </c>
@@ -586,7 +611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>1.5167999999999999</v>
       </c>
@@ -603,7 +628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>1.7002999999999999</v>
       </c>
@@ -620,7 +645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>1.8854</v>
       </c>
@@ -637,7 +662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>2.0366</v>
       </c>
@@ -654,7 +679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>2.1583000000000001</v>
       </c>
@@ -671,7 +696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>2.2641</v>
       </c>
@@ -688,234 +713,227 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>784.4</v>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>783.2</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E15" s="1">
         <v>0.1</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="B16" s="2">
-        <v>722.9</v>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="B16" s="3">
+        <v>768.3</v>
       </c>
       <c r="C16" s="4">
-        <v>0.46200000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="D16" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1">
         <v>0.1</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>0.45929999999999999</v>
-      </c>
-      <c r="B17" s="2">
-        <v>574.79999999999995</v>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="B17" s="3">
+        <v>695.8</v>
       </c>
       <c r="C17" s="4">
-        <v>0.77700000000000002</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
-        <v>0.6391</v>
-      </c>
-      <c r="B18" s="2">
-        <v>516.9</v>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="B18" s="3">
+        <v>608.1</v>
       </c>
       <c r="C18" s="4">
-        <v>1.218</v>
+        <v>0.66</v>
       </c>
       <c r="D18" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <v>0.87080000000000002</v>
-      </c>
-      <c r="B19" s="2">
-        <v>404.2</v>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>0.58740000000000003</v>
+      </c>
+      <c r="B19" s="3">
+        <v>509.9</v>
       </c>
       <c r="C19" s="4">
-        <v>1.806</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
-        <v>1.1327</v>
-      </c>
-      <c r="B20" s="2">
-        <v>335.8</v>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="B20" s="3">
+        <v>460.4</v>
       </c>
       <c r="C20" s="4">
-        <v>2.3520000000000003</v>
+        <v>1.1926000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>1.3546</v>
-      </c>
-      <c r="B21" s="2">
-        <v>538.4</v>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="B21" s="3">
+        <v>677.6</v>
       </c>
       <c r="C21" s="4">
-        <v>2.7720000000000002</v>
+        <v>1.536</v>
       </c>
       <c r="D21" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>1.5643</v>
-      </c>
-      <c r="B22" s="2">
-        <v>810.2</v>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>1.0584</v>
+      </c>
+      <c r="B22" s="3">
+        <v>949</v>
       </c>
       <c r="C22" s="4">
-        <v>3.3180000000000005</v>
+        <v>1.742</v>
       </c>
       <c r="D22" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>1.7803</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1028.3</v>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>1.1949000000000001</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1153.0999999999999</v>
       </c>
       <c r="C23" s="4">
-        <v>3.9689999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="D23" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E23" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1230.4000000000001</v>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>1.2919</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1427.5</v>
       </c>
       <c r="C24" s="4">
-        <v>4.3680000000000003</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <v>2.1856</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1484.6</v>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>1.4063000000000001</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1718</v>
       </c>
       <c r="C25" s="4">
-        <v>4.5360000000000005</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3">
-        <v>2.2902</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1667.8</v>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2">
+        <v>1.4852000000000001</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1967.2</v>
       </c>
       <c r="C26" s="4">
-        <v>4.620000000000001</v>
+        <v>2.4620000000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3">
-        <v>2.3580999999999999</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1885.1</v>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2">
+        <v>1.5414000000000001</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2214.3000000000002</v>
       </c>
       <c r="C27" s="4">
-        <v>4.5570000000000004</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
